--- a/StopLoss.xlsx
+++ b/StopLoss.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Stoploss giúp ta giảm thiểu rủi ro khi vào lệnh bị sai</t>
   </si>
   <si>
-    <t>Thị trường luôn đúng, vì vậy đừng bao giờ nhây với thị trường</t>
-  </si>
-  <si>
     <t>Stoploss giúp ta thoát khỏi trạng thái phải gồng với thị trường dẫn tới lỗ nặng</t>
   </si>
   <si>
@@ -370,13 +367,118 @@
   </si>
   <si>
     <t>Đó là nơi tranh chấp giữa phe mua và phe bán</t>
+  </si>
+  <si>
+    <t>Chén thánh trong giao dịch chính là Stoploss</t>
+  </si>
+  <si>
+    <t>Thị trường luôn đúng, vì vậy đừng bao giờ nhây với thị trường khi mình đã sai</t>
+  </si>
+  <si>
+    <t>Nếu phải gồng lỗ thì bị ghìm trong thị trường rất lâu và khó vào các lệnh khác</t>
+  </si>
+  <si>
+    <t>Nếu phải gồng lỗ thì tâm lý sẽ rất nặng nề, ảnh hưởng đến quá trình trade</t>
+  </si>
+  <si>
+    <t>Đặt stoploss chính là "Thua keo này ta bày keo khác"</t>
+  </si>
+  <si>
+    <t>Cơ hội chiến thắng trong thị trường rất nhiều, việc đặt stoploss giúp ta có nhiều cơ hội vào lệnh khác giành tỷ lệ chiến thắng cao hơn</t>
+  </si>
+  <si>
+    <t>Keylevel là nơi đấu tranh giữa phe buy và phe sell mà có một phe chiến thắng làm giá thoát ra khỏi vùng đó</t>
+  </si>
+  <si>
+    <t>Giá có thể retest lại keylevel và đi tiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi giá retest lại key level thì </t>
+  </si>
+  <si>
+    <t>Nếu phe chiến thắng trước đó vẫn còn mạnh thì khả năng giá bật lại là đi tiếp</t>
+  </si>
+  <si>
+    <t>Nếu phe chiến thắng trước đó bị suy yếu thì khả năng keylevel sẽ bị chọc thủng và đi qua</t>
+  </si>
+  <si>
+    <t>Làm sao để biết được bên nào chiến thắng</t>
+  </si>
+  <si>
+    <t>Hãy chờ xem giá phản ứng với keylevel như thế nào</t>
+  </si>
+  <si>
+    <t>Nếu giá chạm vào keylevel bị bật lại hình thành những cây nến râu dài thì phe đẩy giá đã yếu hơn phe còn lại</t>
+  </si>
+  <si>
+    <t>Giá có retest lại khi cắt qua keylevel và tiếp tục phá cái đỉnh mới hình thành thì khả năng cao phe đẩy giá đã chiến thắng</t>
+  </si>
+  <si>
+    <t>Nếu giá chạm vào keylevel mà hình thành những thân nến dài nằm vắt qua keylevel(chú ý là phải dài để khẳng định phe đẩy giá đủ mạnh nha)</t>
+  </si>
+  <si>
+    <t>Giá liên tục retest lại keylevel không chỉ một lần mà là nhiều lần</t>
+  </si>
+  <si>
+    <t>Lúc nào thị trường cũng có nhịp tăng nhịp giảm</t>
+  </si>
+  <si>
+    <t>Dù ít hay nhiều nên đã làm cho người giao dịch cảm thấy thèm khát trước những nhịp sóng ngược với xu hướng chính</t>
+  </si>
+  <si>
+    <t>Vậy làm sao để không bị mắc cái bẫy ngớ ngẩn này</t>
+  </si>
+  <si>
+    <t>Thì chúng ta phải kiểm soát lòng tham thôi</t>
+  </si>
+  <si>
+    <t>Kế hoạch giao dịch trong giai đoạn sizeway</t>
+  </si>
+  <si>
+    <t>Giả sử khung thời gian lớn là tăng</t>
+  </si>
+  <si>
+    <t>Ta sẽ lên kế hoạch cho canh buy</t>
+  </si>
+  <si>
+    <t>Khung thời gian M15 và M5</t>
+  </si>
+  <si>
+    <t>Công cụ MA55,RSI</t>
+  </si>
+  <si>
+    <t>Giả sử ta đánh theo khung M15 thì ta phải xác định được keylevel M15 thì mới có thể vào lệnh và đặt stoploss được</t>
+  </si>
+  <si>
+    <t>Đánh khung thời gian nào thì phải đặt stoploss/takeprofit theo khung thời gian đó hoặc khung thời gian lớn hơn nó</t>
+  </si>
+  <si>
+    <t>Cái vấn đề này cần phải cần nhiều thời gian nghiên cứu để ngộ ra vấn đề chính</t>
+  </si>
+  <si>
+    <t>Khi keylevel M15 hội tụ với Kelevel H1 và H4 thì nếu ăn được thì lợi nhuận cực kỳ lớn</t>
+  </si>
+  <si>
+    <t>Giả sử khung H4 đang sizeway thì khung M15 liên tục đập qua đập lại giữa hai keylevel</t>
+  </si>
+  <si>
+    <t>Giả sử khung H4 đang tăng nhưng khung M15 đang hình thành rất nhiều sóng đẩy và sóng hồi</t>
+  </si>
+  <si>
+    <t>Nói chung ngộ ra được vấn đề này thì sẽ kiếm được một số $ kha khá</t>
+  </si>
+  <si>
+    <t>Vấn đề này có nói ở phần dưới "sizeway, tích lũy, phá, phân phối"</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +534,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,6 +591,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,13 +617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -527,13 +655,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>93345</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -565,13 +693,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>593407</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -603,13 +731,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>89204</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>189428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -641,13 +769,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>105769</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>7211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -679,13 +807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>97486</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>7211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -979,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E410" sqref="E410"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1165,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -1134,7 +1262,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1275,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1178,525 +1308,682 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="125" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B99" s="8" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B150" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
-        <v>113</v>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
